--- a/biology/Botanique/Grand_Parc_des_Docks_de_Saint-Ouen/Grand_Parc_des_Docks_de_Saint-Ouen.xlsx
+++ b/biology/Botanique/Grand_Parc_des_Docks_de_Saint-Ouen/Grand_Parc_des_Docks_de_Saint-Ouen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Grand Parc des Docks de Saint-Ouen est un espace vert public de 12 hectares à Saint-Ouen-sur-Seine, ouvert dans sa totalité le 7 décembre 2013. Le Grand Parc est géré par l'établissement public territorial Plaine Commune. Le parc a été créé de toutes pièces dans le cadre de l'aménagement de la ZAC des Docks sur une partie des Docks de Saint-Ouen.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est composé d'une grande pelouse de 9 000 m2, d'une prairie de 5 000 m2, de bassins et 2 000 m2 d'aires de jeu. Une serre pédagogique de 1 400 m2 gérée par la ville de Saint-Ouen complète les équipements.
 </t>
@@ -543,7 +557,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Serre pédagogique
 Skate-park
@@ -582,7 +598,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une première partie de 5 hectares est ouverte le 9 juin 2013. Le 7 décembre 2013, c'est la totalité du parc qui ouvre. 
 La parc a été conçu par l'Agence Ter, paysagistes-urbanistes à Paris et le BERIM, bureau d'études technique à Pantin, à l'issue d'un concours de maîtrise d'œuvre gagné en 2010 et organisé par l'aménageur de la ZAC, Séquano Aménagement.
@@ -614,7 +632,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Accès principal : 32 rue Albert Dhalenne
 Rue de la Clef des Champs
